--- a/data/coded_segments/zm_6_1.xlsx
+++ b/data/coded_segments/zm_6_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DB13B3-580B-EF41-947A-66ED10B05886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{377AE9A8-816F-1A47-9172-AE395E76BD2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="742">
   <si>
     <t>Color</t>
   </si>
@@ -2271,6 +2271,66 @@
   </si>
   <si>
     <t>11/8/18 14:51:00</t>
+  </si>
+  <si>
+    <t>1: 1933</t>
+  </si>
+  <si>
+    <t>1: 1936</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>11/14/18 13:12:00</t>
+  </si>
+  <si>
+    <t>1: 1942</t>
+  </si>
+  <si>
+    <t>1: 1945</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>1: 1890</t>
+  </si>
+  <si>
+    <t>1: 1893</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>11/14/18 13:17:00</t>
+  </si>
+  <si>
+    <t>1: 1903</t>
+  </si>
+  <si>
+    <t>1: 1909</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>1: 1895</t>
+  </si>
+  <si>
+    <t>1: 1898</t>
+  </si>
+  <si>
+    <t>1: 1911</t>
+  </si>
+  <si>
+    <t>1: 1914</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>11/14/18 13:18:00</t>
   </si>
 </sst>
 </file>
@@ -2735,7 +2795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M283"/>
+  <dimension ref="A1:M293"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14354,6 +14414,416 @@
         <v>721</v>
       </c>
     </row>
+    <row r="284" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A284" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="H284" s="3">
+        <v>0</v>
+      </c>
+      <c r="I284" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="J284" s="3">
+        <v>4</v>
+      </c>
+      <c r="K284" s="4">
+        <v>1.1254E-2</v>
+      </c>
+      <c r="L284" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M284" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A285" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="H285" s="3">
+        <v>0</v>
+      </c>
+      <c r="I285" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="J285" s="3">
+        <v>4</v>
+      </c>
+      <c r="K285" s="4">
+        <v>1.1254E-2</v>
+      </c>
+      <c r="L285" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M285" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A286" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H286" s="3">
+        <v>0</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="J286" s="3">
+        <v>4</v>
+      </c>
+      <c r="K286" s="4">
+        <v>1.1473000000000001E-2</v>
+      </c>
+      <c r="L286" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M286" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A287" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="H287" s="3">
+        <v>0</v>
+      </c>
+      <c r="I287" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="J287" s="3">
+        <v>7</v>
+      </c>
+      <c r="K287" s="4">
+        <v>2.0077000000000001E-2</v>
+      </c>
+      <c r="L287" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M287" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A288" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H288" s="3">
+        <v>0</v>
+      </c>
+      <c r="I288" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J288" s="3">
+        <v>4</v>
+      </c>
+      <c r="K288" s="4">
+        <v>1.1473000000000001E-2</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M288" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A289" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="H289" s="3">
+        <v>0</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="J289" s="3">
+        <v>4</v>
+      </c>
+      <c r="K289" s="4">
+        <v>1.1473000000000001E-2</v>
+      </c>
+      <c r="L289" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M289" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A290" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="H290" s="3">
+        <v>0</v>
+      </c>
+      <c r="I290" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="J290" s="3">
+        <v>4</v>
+      </c>
+      <c r="K290" s="4">
+        <v>1.1473000000000001E-2</v>
+      </c>
+      <c r="L290" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A291" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="H291" s="3">
+        <v>0</v>
+      </c>
+      <c r="I291" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="J291" s="3">
+        <v>7</v>
+      </c>
+      <c r="K291" s="4">
+        <v>2.0077000000000001E-2</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M291" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A292" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H292" s="3">
+        <v>0</v>
+      </c>
+      <c r="I292" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J292" s="3">
+        <v>4</v>
+      </c>
+      <c r="K292" s="4">
+        <v>1.1473000000000001E-2</v>
+      </c>
+      <c r="L292" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M292" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A293" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H293" s="3">
+        <v>0</v>
+      </c>
+      <c r="I293" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="J293" s="3">
+        <v>4</v>
+      </c>
+      <c r="K293" s="4">
+        <v>1.1473000000000001E-2</v>
+      </c>
+      <c r="L293" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M293" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/coded_segments/zm_6_1.xlsx
+++ b/data/coded_segments/zm_6_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{377AE9A8-816F-1A47-9172-AE395E76BD2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2556A6B2-6618-D145-B89A-2B32E0E8BE7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="762">
   <si>
     <t>Color</t>
   </si>
@@ -2331,6 +2331,66 @@
   </si>
   <si>
     <t>11/14/18 13:18:00</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/23/19 14:02:45</t>
+  </si>
+  <si>
+    <t>1/23/19 14:05:48</t>
+  </si>
+  <si>
+    <t>1/23/19 14:07:31</t>
+  </si>
+  <si>
+    <t>1/31/19 10:21:49</t>
+  </si>
+  <si>
+    <t>1/31/19 10:21:53</t>
+  </si>
+  <si>
+    <t>1/31/19 10:21:57</t>
+  </si>
+  <si>
+    <t>1/31/19 10:22:02</t>
+  </si>
+  <si>
+    <t>1/31/19 10:22:15</t>
+  </si>
+  <si>
+    <t>1/31/19 10:22:24</t>
+  </si>
+  <si>
+    <t>1/31/19 10:22:36</t>
+  </si>
+  <si>
+    <t>1/31/19 10:22:58</t>
+  </si>
+  <si>
+    <t>1/31/19 10:23:04</t>
+  </si>
+  <si>
+    <t>1/31/19 10:23:09</t>
+  </si>
+  <si>
+    <t>1/31/19 10:23:49</t>
+  </si>
+  <si>
+    <t>1/31/19 10:23:56</t>
+  </si>
+  <si>
+    <t>1/31/19 10:24:04</t>
+  </si>
+  <si>
+    <t>1/31/19 10:24:33</t>
+  </si>
+  <si>
+    <t>1/31/19 10:24:41</t>
+  </si>
+  <si>
+    <t>1/31/19 10:24:46</t>
   </si>
 </sst>
 </file>
@@ -2795,7 +2855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:M312"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14824,6 +14884,785 @@
         <v>741</v>
       </c>
     </row>
+    <row r="294" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A294" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H294" s="3">
+        <v>0</v>
+      </c>
+      <c r="I294" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J294" s="3">
+        <v>3</v>
+      </c>
+      <c r="K294" s="4">
+        <v>1.181381428683941E-2</v>
+      </c>
+      <c r="L294" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M294" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A295" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H295" s="3">
+        <v>0</v>
+      </c>
+      <c r="I295" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J295" s="3">
+        <v>4</v>
+      </c>
+      <c r="K295" s="4">
+        <v>1.575175238245255E-2</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M295" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A296" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H296" s="3">
+        <v>0</v>
+      </c>
+      <c r="I296" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J296" s="3">
+        <v>4</v>
+      </c>
+      <c r="K296" s="4">
+        <v>1.575175238245255E-2</v>
+      </c>
+      <c r="L296" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M296" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A297" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H297" s="3">
+        <v>0</v>
+      </c>
+      <c r="I297" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J297" s="3">
+        <v>4</v>
+      </c>
+      <c r="K297" s="4">
+        <v>1.7135023989033587E-2</v>
+      </c>
+      <c r="L297" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M297" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A298" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H298" s="3">
+        <v>0</v>
+      </c>
+      <c r="I298" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J298" s="3">
+        <v>4</v>
+      </c>
+      <c r="K298" s="4">
+        <v>1.7135023989033587E-2</v>
+      </c>
+      <c r="L298" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M298" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A299" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H299" s="3">
+        <v>0</v>
+      </c>
+      <c r="I299" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J299" s="3">
+        <v>4</v>
+      </c>
+      <c r="K299" s="4">
+        <v>1.7135023989033587E-2</v>
+      </c>
+      <c r="L299" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M299" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H300" s="3">
+        <v>0</v>
+      </c>
+      <c r="I300" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J300" s="3">
+        <v>4</v>
+      </c>
+      <c r="K300" s="4">
+        <v>1.7135023989033587E-2</v>
+      </c>
+      <c r="L300" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M300" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H301" s="3">
+        <v>0</v>
+      </c>
+      <c r="I301" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J301" s="3">
+        <v>4</v>
+      </c>
+      <c r="K301" s="4">
+        <v>1.7135023989033587E-2</v>
+      </c>
+      <c r="L301" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M301" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A302" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H302" s="3">
+        <v>0</v>
+      </c>
+      <c r="I302" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J302" s="3">
+        <v>4</v>
+      </c>
+      <c r="K302" s="4">
+        <v>1.7135023989033587E-2</v>
+      </c>
+      <c r="L302" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M302" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A303" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H303" s="3">
+        <v>0</v>
+      </c>
+      <c r="I303" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J303" s="3">
+        <v>4</v>
+      </c>
+      <c r="K303" s="4">
+        <v>1.7135023989033587E-2</v>
+      </c>
+      <c r="L303" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M303" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A304" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H304" s="3">
+        <v>0</v>
+      </c>
+      <c r="I304" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J304" s="3">
+        <v>4</v>
+      </c>
+      <c r="K304" s="4">
+        <v>1.7135023989033587E-2</v>
+      </c>
+      <c r="L304" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M304" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A305" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H305" s="3">
+        <v>0</v>
+      </c>
+      <c r="I305" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J305" s="3">
+        <v>4</v>
+      </c>
+      <c r="K305" s="4">
+        <v>1.7135023989033587E-2</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M305" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A306" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H306" s="3">
+        <v>0</v>
+      </c>
+      <c r="I306" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J306" s="3">
+        <v>2</v>
+      </c>
+      <c r="K306" s="4">
+        <v>8.5675119945167934E-3</v>
+      </c>
+      <c r="L306" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M306" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A307" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H307" s="3">
+        <v>0</v>
+      </c>
+      <c r="I307" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J307" s="3">
+        <v>3</v>
+      </c>
+      <c r="K307" s="4">
+        <v>1.5673162321717778E-2</v>
+      </c>
+      <c r="L307" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M307" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A308" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H308" s="3">
+        <v>0</v>
+      </c>
+      <c r="I308" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J308" s="3">
+        <v>3</v>
+      </c>
+      <c r="K308" s="4">
+        <v>1.5673162321717778E-2</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M308" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A309" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H309" s="3">
+        <v>0</v>
+      </c>
+      <c r="I309" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J309" s="3">
+        <v>3</v>
+      </c>
+      <c r="K309" s="4">
+        <v>1.5673162321717778E-2</v>
+      </c>
+      <c r="L309" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M309" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A310" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="H310" s="3">
+        <v>0</v>
+      </c>
+      <c r="I310" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J310" s="3">
+        <v>4</v>
+      </c>
+      <c r="K310" s="4">
+        <v>2.0897549762290371E-2</v>
+      </c>
+      <c r="L310" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M310" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A311" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H311" s="3">
+        <v>0</v>
+      </c>
+      <c r="I311" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J311" s="3">
+        <v>3</v>
+      </c>
+      <c r="K311" s="4">
+        <v>1.5673162321717778E-2</v>
+      </c>
+      <c r="L311" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M311" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A312" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H312" s="3">
+        <v>0</v>
+      </c>
+      <c r="I312" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J312" s="3">
+        <v>3</v>
+      </c>
+      <c r="K312" s="4">
+        <v>1.5673162321717778E-2</v>
+      </c>
+      <c r="L312" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M312" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/coded_segments/zm_6_1.xlsx
+++ b/data/coded_segments/zm_6_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4098" windowHeight="3672"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15528" windowHeight="6648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="756">
   <si>
     <t>Color</t>
   </si>
@@ -2366,6 +2366,12 @@
   </si>
   <si>
     <t>Dissemination</t>
+  </si>
+  <si>
+    <t>dattaray</t>
+  </si>
+  <si>
+    <t>9/17/2019 12:31:10</t>
   </si>
 </sst>
 </file>
@@ -2380,19 +2386,16 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF909090"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2799,7 +2802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M314"/>
+  <dimension ref="A1:M315"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15689,6 +15692,47 @@
         <v>750</v>
       </c>
     </row>
+    <row r="315" spans="1:13" ht="38.700000000000003">
+      <c r="A315" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H315" s="3">
+        <v>0</v>
+      </c>
+      <c r="I315" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J315" s="3">
+        <v>173</v>
+      </c>
+      <c r="K315" s="4">
+        <v>0.4867343780772585</v>
+      </c>
+      <c r="L315" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="M315" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
